--- a/Doc/schedule (3).xlsx
+++ b/Doc/schedule (3).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyrel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3DF5E-0FD0-467F-9F5A-D26794C652E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="16">
   <si>
     <t>Monday</t>
   </si>
@@ -63,12 +64,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>P = Tyrel</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T,P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,20 +390,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -430,20 +440,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.33333333333333331</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
@@ -451,10 +467,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.375</v>
       </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
@@ -462,69 +481,123 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.41666666666666702</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.45833333333333398</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.5</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -532,87 +605,126 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.125</v>
       </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.16666666666666699</v>
       </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.20833333333333401</v>
       </c>
@@ -620,12 +732,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.25</v>
       </c>
@@ -633,12 +745,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -646,12 +758,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.33333333333333398</v>
       </c>
@@ -659,12 +771,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.375</v>
       </c>
@@ -672,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H31" t="s">
         <v>12</v>
       </c>
